--- a/biology/Médecine/Aprémilast/Aprémilast.xlsx
+++ b/biology/Médecine/Aprémilast/Aprémilast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apr%C3%A9milast</t>
+          <t>Aprémilast</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'aprémilast est une molécule en cours de développement comme médicament en tant qu'inhibiteur de la phosphodiestérase 4.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apr%C3%A9milast</t>
+          <t>Aprémilast</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il inhibe la dégradation de l'AMP cyclique. Par cet intermédiaire, il diminue par exemple le taux de TNFα, d'interleukine 12 et 23[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il inhibe la dégradation de l'AMP cyclique. Par cet intermédiaire, il diminue par exemple le taux de TNFα, d'interleukine 12 et 23.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apr%C3%A9milast</t>
+          <t>Aprémilast</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Utilisation en cours de test</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il améliorerait significativement les lésions du psoriasis[2] et le score ACR70 (en) en cas de rhumatisme psoriasique[3],[4].
-Le 23 septembre 2014, la Food and Drug Administration (FDA) a accordé une autorisation de mise sur le marché à l’aprémilast (Otezla) chez les patients souffrant d’un psoriasis en plaques modéré à sévère candidats à la photothérapie ou à un traitement systémique[5].
-Dans la maladie de Behcet, il diminue le nombre d'ulcères oraux[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il améliorerait significativement les lésions du psoriasis et le score ACR70 (en) en cas de rhumatisme psoriasique,.
+Le 23 septembre 2014, la Food and Drug Administration (FDA) a accordé une autorisation de mise sur le marché à l’aprémilast (Otezla) chez les patients souffrant d’un psoriasis en plaques modéré à sévère candidats à la photothérapie ou à un traitement systémique.
+Dans la maladie de Behcet, il diminue le nombre d'ulcères oraux.
 </t>
         </is>
       </c>
